--- a/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AU45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -743,14 +749,11 @@
           <t>May 14, 2024</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>1s2024</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
           <t>November 16, 2023</t>
@@ -771,7 +774,6 @@
           <t>Panabo General Contractor &amp; Development</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -808,14 +810,9 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -861,27 +858,16 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -892,9 +878,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -930,13 +913,9 @@
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
-      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
         <v>1</v>
       </c>
@@ -946,7 +925,6 @@
       <c r="AR3" t="n">
         <v>18564153.25</v>
       </c>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -1017,17 +995,14 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT1</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -1038,10 +1013,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1049,7 +1024,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1086,14 +1060,9 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1169,17 +1138,14 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT1</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -1190,10 +1156,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1201,7 +1167,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1238,14 +1203,9 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1321,17 +1281,14 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>45497</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -1342,10 +1299,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1353,7 +1310,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1390,14 +1346,9 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1473,17 +1424,14 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>45497</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -1494,10 +1442,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1505,7 +1453,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1542,14 +1489,9 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1595,23 +1537,11 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -1622,9 +1552,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -1660,13 +1587,9 @@
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
-      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1599,6 @@
       <c r="AR8" t="n">
         <v>13005556.2</v>
       </c>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -1736,7 +1658,6 @@
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -1745,11 +1666,6 @@
       <c r="O9" t="n">
         <v>0.85</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -1760,9 +1676,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>Failed bidding; 
@@ -1805,12 +1718,6 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1886,10 +1793,10 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>45497</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>45497</v>
       </c>
       <c r="R10" t="inlineStr">
@@ -1897,8 +1804,6 @@
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -1909,10 +1814,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1961,14 +1866,9 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2014,23 +1914,11 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -2041,9 +1929,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -2079,13 +1964,9 @@
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
         <v>1</v>
       </c>
@@ -2095,7 +1976,6 @@
       <c r="AR11" t="n">
         <v>9707668.779999999</v>
       </c>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -2136,23 +2016,11 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -2163,9 +2031,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -2201,13 +2066,9 @@
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
-      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
         <v>1</v>
       </c>
@@ -2217,7 +2078,6 @@
       <c r="AR12" t="n">
         <v>9707668.779999999</v>
       </c>
-      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -2258,23 +2118,11 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -2285,9 +2133,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -2323,13 +2168,9 @@
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
         <v>1</v>
       </c>
@@ -2339,7 +2180,6 @@
       <c r="AR13" t="n">
         <v>10971940.01</v>
       </c>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -2410,17 +2250,14 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -2431,10 +2268,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2442,7 +2279,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2479,14 +2315,9 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2562,17 +2393,14 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -2583,10 +2411,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2594,7 +2422,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2631,14 +2458,9 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2703,7 +2525,6 @@
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2712,17 +2533,15 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45707</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>SDDO-015-2024</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>45451</v>
       </c>
       <c r="U16" t="inlineStr">
@@ -2730,12 +2549,9 @@
           <t>08/18/2024</t>
         </is>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>45544</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>for award</t>
@@ -2777,14 +2593,9 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="n">
         <v>4.25</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2830,7 +2641,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>12</v>
       </c>
@@ -2858,17 +2668,14 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -2879,14 +2686,11 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2923,14 +2727,9 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3006,17 +2805,14 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -3027,10 +2823,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3038,7 +2834,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -3075,14 +2870,9 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3158,17 +2948,14 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -3179,10 +2966,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3190,7 +2977,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3227,14 +3013,9 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3310,17 +3091,14 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT8</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -3331,10 +3109,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>45378</v>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3342,7 +3120,6 @@
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3379,14 +3156,9 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="n">
         <v>12.24</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3432,23 +3204,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -3459,9 +3219,6 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -3497,13 +3254,9 @@
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
         <v>1</v>
       </c>
@@ -3513,7 +3266,6 @@
       <c r="AR21" t="n">
         <v>4707111.897797923</v>
       </c>
-      <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -3584,17 +3336,14 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT6</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -3605,10 +3354,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="3" t="n">
         <v>45366</v>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3616,7 +3365,6 @@
           <t>DQMB CONST. &amp; SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3653,14 +3401,9 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3706,23 +3449,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -3733,9 +3464,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -3771,13 +3499,9 @@
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
-      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="n">
         <v>1</v>
       </c>
@@ -3787,7 +3511,6 @@
       <c r="AR23" t="n">
         <v>6848897.56</v>
       </c>
-      <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -3858,13 +3581,9 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45612</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -3875,10 +3594,10 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45373</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>45428</v>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3886,7 +3605,6 @@
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3923,14 +3641,9 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="n">
         <v>12.24</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4006,17 +3719,14 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT6</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -4027,10 +3737,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="X25" s="3" t="n">
         <v>45366</v>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4038,7 +3748,6 @@
           <t>DQMB CONST. &amp; SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -4075,14 +3784,9 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4128,23 +3832,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -4155,9 +3847,6 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -4193,13 +3882,9 @@
       <c r="AJ26" t="n">
         <v>0</v>
       </c>
-      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
         <v>1</v>
       </c>
@@ -4209,7 +3894,6 @@
       <c r="AR26" t="n">
         <v>3095069.01634175</v>
       </c>
-      <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -4269,7 +3953,6 @@
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4278,13 +3961,10 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45707</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45451</v>
       </c>
       <c r="U27" t="inlineStr">
@@ -4292,12 +3972,9 @@
           <t>08/18/2024</t>
         </is>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45544</v>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -4339,14 +4016,9 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="n">
         <v>4.25</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4392,23 +4064,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -4419,9 +4079,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -4457,13 +4114,9 @@
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
-      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4126,6 @@
       <c r="AR28" t="n">
         <v>9707668.779999999</v>
       </c>
-      <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -4514,23 +4166,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -4541,9 +4181,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -4579,21 +4216,15 @@
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
-      <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>5000000</v>
       </c>
-      <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -4634,23 +4265,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -4661,9 +4280,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -4699,21 +4315,15 @@
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
-      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="n">
         <v>5</v>
       </c>
       <c r="AR30" t="n">
         <v>17524161.43</v>
       </c>
-      <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -4754,23 +4364,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
@@ -4781,9 +4379,6 @@
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -4819,21 +4414,15 @@
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
-      <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="n">
         <v>3</v>
       </c>
       <c r="AR31" t="n">
         <v>9707668.779999999</v>
       </c>
-      <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -4874,23 +4463,11 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -4901,9 +4478,6 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
@@ -4939,21 +4513,15 @@
       <c r="AJ32" t="n">
         <v>0</v>
       </c>
-      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="n">
         <v>4</v>
       </c>
       <c r="AR32" t="n">
         <v>3892007.335944003</v>
       </c>
-      <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr">
         <is>
           <t>REALIGNED</t>
@@ -4994,7 +4562,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>10</v>
       </c>
@@ -5011,7 +4578,6 @@
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -5020,17 +4586,6 @@
       <c r="O33" t="n">
         <v>0.55</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5067,12 +4622,6 @@
       <c r="AL33" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5118,7 +4667,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>4</v>
       </c>
@@ -5135,7 +4683,6 @@
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -5144,17 +4691,6 @@
       <c r="O34" t="n">
         <v>0.65</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5191,12 +4727,6 @@
       <c r="AL34" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5242,7 +4772,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
         <v>15</v>
       </c>
@@ -5259,7 +4788,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -5268,17 +4796,6 @@
       <c r="O35" t="n">
         <v>0.85</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5315,14 +4832,9 @@
       <c r="AL35" t="n">
         <v>0.15</v>
       </c>
-      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="n">
         <v>5.25</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5368,7 +4880,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>3</v>
       </c>
@@ -5385,7 +4896,6 @@
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -5394,17 +4904,6 @@
       <c r="O36" t="n">
         <v>0.75</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5441,12 +4940,6 @@
       <c r="AL36" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5492,7 +4985,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>10</v>
       </c>
@@ -5509,7 +5001,6 @@
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -5518,17 +5009,6 @@
       <c r="O37" t="n">
         <v>0.55</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5565,12 +5045,6 @@
       <c r="AL37" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5616,7 +5090,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>4</v>
       </c>
@@ -5633,7 +5106,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5642,17 +5114,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5689,14 +5150,9 @@
       <c r="AL38" t="n">
         <v>0.24</v>
       </c>
-      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="n">
         <v>5.25</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5761,7 +5217,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5770,17 +5225,14 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -5791,10 +5243,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="X39" s="2" t="n">
+      <c r="X39" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5802,7 +5254,6 @@
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5839,14 +5290,9 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5922,17 +5368,14 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>45597</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT7</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -5943,10 +5386,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>45373</v>
       </c>
-      <c r="X40" s="2" t="n">
+      <c r="X40" s="3" t="n">
         <v>45428</v>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5995,14 +5438,9 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="n">
         <v>12.24</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6078,17 +5516,14 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>45597</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT7</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
@@ -6099,10 +5534,10 @@
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="3" t="n">
         <v>45373</v>
       </c>
-      <c r="X41" s="2" t="n">
+      <c r="X41" s="3" t="n">
         <v>45428</v>
       </c>
       <c r="Y41" t="inlineStr">
@@ -6110,7 +5545,6 @@
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6147,14 +5581,9 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="n">
         <v>12.24</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6219,7 +5648,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -6228,10 +5656,9 @@
       <c r="O42" t="n">
         <v>0.7</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
           <t>ITB W-13-2025</t>
@@ -6242,16 +5669,16 @@
           <t>2024-021</t>
         </is>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>45979</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="W42" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="X42" t="inlineStr">
@@ -6264,7 +5691,6 @@
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -6301,16 +5727,11 @@
       <c r="AL42" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6375,7 +5796,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -6384,10 +5804,9 @@
       <c r="O43" t="n">
         <v>0.75</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
           <t>ITB W-12-2025</t>
@@ -6398,16 +5817,16 @@
           <t>2024-020</t>
         </is>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>45979</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="W43" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="X43" t="inlineStr">
@@ -6420,7 +5839,6 @@
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6457,16 +5875,11 @@
       <c r="AL43" t="n">
         <v>0.3</v>
       </c>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6547,13 +5960,11 @@
           <t>04/20/2025</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
           <t>infra-001-0802024</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
           <t>10/15/2024</t>
@@ -6564,10 +5975,9 @@
           <t>10/21/2024</t>
         </is>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
@@ -6617,7 +6027,6 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="n">
         <v>4.25</v>
       </c>
@@ -6626,9 +6035,6 @@
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6674,7 +6080,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>3</v>
       </c>
@@ -6702,16 +6107,14 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
           <t>infra-001-0802024</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
           <t>10/15/2024</t>
@@ -6722,10 +6125,9 @@
           <t>10/21/2024</t>
         </is>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
@@ -6775,7 +6177,6 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="n">
         <v>4.25</v>
       </c>
@@ -6784,9 +6185,6 @@
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6795,6 +6193,79 @@
       <c r="AT45" t="inlineStr">
         <is>
           <t>completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
@@ -863,11 +863,6 @@
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>January 31, 2024</t>

--- a/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,3972 +447,4002 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="48" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="41" customWidth="1" min="25" max="25"/>
+    <col width="63" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Davao City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>129652</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Alejandra L. Navarro Central Elementary School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>DAVAO CITY</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>2722196.51</v>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>2252300.56</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>May 14, 2024</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>1s2024</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>November 16, 2023</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>January 16, 204</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>February 20, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Panabo General Contractor &amp; Development</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="n"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>315819</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Bango NHS</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr"/>
-      <c r="K3" s="4" t="inlineStr"/>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="inlineStr"/>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="5" t="inlineStr"/>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr"/>
-      <c r="P3" s="4" t="inlineStr"/>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr"/>
-      <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr"/>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr"/>
+      <c r="X3" s="5" t="inlineStr"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="n"/>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>128267</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Mangayon ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>2809299.499915523</v>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <v>2121007.86</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT1</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>128270</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>New Alegria ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>4108204.870844576</v>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <v>2755999.53</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT1</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>128378</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Bagong Silang ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>2073961.662562171</v>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <v>1435695.91</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>128380</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Cambagang ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>5915104.549336852</v>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="5" t="n">
         <v>4071586.69</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>128387</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Mabugnao ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="inlineStr"/>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr"/>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr"/>
+      <c r="X8" s="5" t="inlineStr"/>
+      <c r="Y8" s="5" t="inlineStr"/>
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="n"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>128390</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Mauswagon ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>13960812.88</v>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>Failed bidding; 
 Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="n"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>128393</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>New Manay ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>2079599.342226845</v>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <v>1462881.36</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q10" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>204009</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Sapawan ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr"/>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA11" s="4" t="n"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>128403</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Tuburan ES</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="4" t="inlineStr"/>
-      <c r="J12" s="4" t="inlineStr"/>
-      <c r="K12" s="4" t="inlineStr"/>
-      <c r="L12" s="4" t="inlineStr"/>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr"/>
-      <c r="P12" s="4" t="inlineStr"/>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA12" s="4" t="n"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>128431</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Casoon ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr"/>
-      <c r="J13" s="4" t="inlineStr"/>
-      <c r="K13" s="4" t="inlineStr"/>
-      <c r="L13" s="4" t="inlineStr"/>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr"/>
-      <c r="P13" s="4" t="inlineStr"/>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr"/>
-      <c r="X13" s="4" t="inlineStr"/>
-      <c r="Y13" s="4" t="inlineStr"/>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr"/>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA13" s="4" t="n"/>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>304199</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Monkayo NHS</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>3921702.249427918</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="5" t="n">
         <v>2761931.82</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr"/>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="n"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>500455</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Olaycon Integrated School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>2193563.316904601</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="5" t="n">
         <v>1590036.59</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="n"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>315808</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>ULIP NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>9707668.779999999</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="7" t="n">
         <v>45707</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>SDDO-015-2024</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="5" t="n">
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="7" t="n">
         <v>45451</v>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>08/18/2024</t>
         </is>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="W16" s="4" t="inlineStr"/>
-      <c r="X16" s="4" t="inlineStr"/>
-      <c r="Y16" s="4" t="inlineStr"/>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr"/>
+      <c r="X16" s="5" t="inlineStr"/>
+      <c r="Y16" s="5" t="inlineStr"/>
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>for award</t>
         </is>
       </c>
-      <c r="AA16" s="4" t="n"/>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>315808</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>ULIP NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="inlineStr"/>
+      <c r="I17" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>3289402.949819081</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="5" t="n">
         <v>2333984.98</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr"/>
-      <c r="X17" s="4" t="inlineStr"/>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr"/>
+      <c r="X17" s="5" t="inlineStr"/>
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="4" t="n"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>304202</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Montevista NHS</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>MONTEVISTA</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>1553352.293399594</v>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="5" t="n">
         <v>1149366.41</v>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X18" s="5" t="n">
+      <c r="X18" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr"/>
-      <c r="AA18" s="4" t="n"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>128477</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Sambayon ES</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>MONTEVISTA</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>2916790.980002243</v>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="5" t="n">
         <v>1980451.57</v>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X19" s="5" t="n">
+      <c r="X19" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="n"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>304206</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>New Bataan NHS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>NEW BATAAN</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>16725290.85997445</v>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="5" t="n">
         <v>10972099.93</v>
       </c>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT8</t>
         </is>
       </c>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X20" s="5" t="n">
+      <c r="X20" s="7" t="n">
         <v>45378</v>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="4" t="n"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>304173</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Anibongan NHS</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr"/>
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="J21" s="5" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr"/>
+      <c r="L21" s="5" t="inlineStr"/>
+      <c r="M21" s="5" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="inlineStr"/>
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="V21" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W21" s="4" t="inlineStr"/>
-      <c r="X21" s="4" t="inlineStr"/>
-      <c r="Y21" s="4" t="inlineStr"/>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr"/>
+      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Y21" s="5" t="inlineStr"/>
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA21" s="4" t="n"/>
+      <c r="AA21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>304193</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Atty. Orlando S. Rimando NHS</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>6257681.118703899</v>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="5" t="n">
         <v>4373310.2</v>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="O22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr"/>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT6</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr"/>
-      <c r="T22" s="4" t="inlineStr"/>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="7" t="n">
         <v>45362</v>
       </c>
-      <c r="X22" s="5" t="n">
+      <c r="X22" s="7" t="n">
         <v>45366</v>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>DQMB CONST. &amp; SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr"/>
-      <c r="AA22" s="4" t="n"/>
+      <c r="Z22" s="5" t="inlineStr"/>
+      <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>128345</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Bucana ES</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="4" t="inlineStr"/>
-      <c r="J23" s="4" t="inlineStr"/>
-      <c r="K23" s="4" t="inlineStr"/>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr"/>
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="J23" s="5" t="inlineStr"/>
+      <c r="K23" s="5" t="inlineStr"/>
+      <c r="L23" s="5" t="inlineStr"/>
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O23" s="4" t="inlineStr"/>
-      <c r="P23" s="4" t="inlineStr"/>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="inlineStr"/>
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V23" s="4" t="inlineStr">
+      <c r="V23" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr">
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA23" s="4" t="n"/>
+      <c r="AA23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>128349</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Gubatan ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>3-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>31978668.37</v>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L24" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="5" t="n">
         <v>31969553.96</v>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
+      <c r="O24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="7" t="n">
         <v>45612</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr"/>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr"/>
-      <c r="T24" s="4" t="inlineStr"/>
-      <c r="U24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr"/>
+      <c r="U24" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="V24" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="7" t="n">
         <v>45373</v>
       </c>
-      <c r="X24" s="5" t="n">
+      <c r="X24" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr"/>
-      <c r="AA24" s="4" t="n"/>
+      <c r="Z24" s="5" t="inlineStr"/>
+      <c r="AA24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>315811</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>New Leyte NHS</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>1614972.43548443</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="M25" s="5" t="n">
         <v>1137605.79</v>
       </c>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
+      <c r="O25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr"/>
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT6</t>
         </is>
       </c>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr"/>
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="7" t="n">
         <v>45362</v>
       </c>
-      <c r="X25" s="5" t="n">
+      <c r="X25" s="7" t="n">
         <v>45366</v>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>DQMB CONST. &amp; SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr"/>
-      <c r="AA25" s="4" t="n"/>
+      <c r="Z25" s="5" t="inlineStr"/>
+      <c r="AA25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>301526</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Pangi NHS</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr"/>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr"/>
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr"/>
-      <c r="Z26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr"/>
+      <c r="X26" s="5" t="inlineStr"/>
+      <c r="Y26" s="5" t="inlineStr"/>
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="n"/>
+      <c r="AA26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>128362</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Taglawig ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>6848897.56</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
+      <c r="O27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="7" t="n">
         <v>45707</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="5" t="n">
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr"/>
+      <c r="T27" s="7" t="n">
         <v>45451</v>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>08/18/2024</t>
         </is>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
-      <c r="Y27" s="4" t="inlineStr"/>
-      <c r="Z27" s="4" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr"/>
+      <c r="X27" s="5" t="inlineStr"/>
+      <c r="Y27" s="5" t="inlineStr"/>
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA27" s="4" t="n"/>
+      <c r="AA27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr"/>
+      <c r="L28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr"/>
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
-      <c r="Y28" s="4" t="inlineStr"/>
-      <c r="Z28" s="4" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr"/>
+      <c r="X28" s="5" t="inlineStr"/>
+      <c r="Y28" s="5" t="inlineStr"/>
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA28" s="4" t="n"/>
+      <c r="AA28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
-      <c r="K29" s="4" t="inlineStr"/>
-      <c r="L29" s="4" t="inlineStr"/>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="J29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr"/>
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O29" s="4" t="inlineStr"/>
-      <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="inlineStr"/>
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr"/>
+      <c r="T29" s="5" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr"/>
-      <c r="Z29" s="4" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr"/>
+      <c r="X29" s="5" t="inlineStr"/>
+      <c r="Y29" s="5" t="inlineStr"/>
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA29" s="4" t="n"/>
+      <c r="AA29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
-      <c r="L30" s="4" t="inlineStr"/>
-      <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr"/>
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr"/>
+      <c r="L30" s="5" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr"/>
-      <c r="P30" s="4" t="inlineStr"/>
-      <c r="Q30" s="4" t="inlineStr"/>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr"/>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="inlineStr"/>
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr"/>
+      <c r="X30" s="5" t="inlineStr"/>
+      <c r="Y30" s="5" t="inlineStr"/>
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA30" s="4" t="n"/>
+      <c r="AA30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr"/>
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="J31" s="5" t="inlineStr"/>
+      <c r="K31" s="5" t="inlineStr"/>
+      <c r="L31" s="5" t="inlineStr"/>
+      <c r="M31" s="5" t="inlineStr"/>
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr"/>
+      <c r="P31" s="5" t="inlineStr"/>
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="5" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W31" s="4" t="inlineStr"/>
-      <c r="X31" s="4" t="inlineStr"/>
-      <c r="Y31" s="4" t="inlineStr"/>
-      <c r="Z31" s="4" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr"/>
+      <c r="X31" s="5" t="inlineStr"/>
+      <c r="Y31" s="5" t="inlineStr"/>
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA31" s="4" t="n"/>
+      <c r="AA31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="4" t="inlineStr"/>
-      <c r="J32" s="4" t="inlineStr"/>
-      <c r="K32" s="4" t="inlineStr"/>
-      <c r="L32" s="4" t="inlineStr"/>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr"/>
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="J32" s="5" t="inlineStr"/>
+      <c r="K32" s="5" t="inlineStr"/>
+      <c r="L32" s="5" t="inlineStr"/>
+      <c r="M32" s="5" t="inlineStr"/>
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O32" s="4" t="inlineStr"/>
-      <c r="P32" s="4" t="inlineStr"/>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr"/>
-      <c r="S32" s="4" t="inlineStr"/>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr">
+      <c r="O32" s="5" t="inlineStr"/>
+      <c r="P32" s="5" t="inlineStr"/>
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W32" s="4" t="inlineStr"/>
-      <c r="X32" s="4" t="inlineStr"/>
-      <c r="Y32" s="4" t="inlineStr"/>
-      <c r="Z32" s="4" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr"/>
+      <c r="X32" s="5" t="inlineStr"/>
+      <c r="Y32" s="5" t="inlineStr"/>
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA32" s="4" t="n"/>
+      <c r="AA32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>304203</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Monkayo CES</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>MONKAYO WEST</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr"/>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="inlineStr"/>
+      <c r="I33" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>2STY10CL</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>37496099.9</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L33" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr"/>
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
+      <c r="O33" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="P33" s="4" t="inlineStr"/>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="inlineStr"/>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr"/>
-      <c r="V33" s="4" t="inlineStr"/>
-      <c r="W33" s="4" t="inlineStr"/>
-      <c r="X33" s="4" t="inlineStr"/>
-      <c r="Y33" s="4" t="inlineStr"/>
-      <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="4" t="n"/>
+      <c r="P33" s="5" t="inlineStr"/>
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr"/>
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr"/>
+      <c r="V33" s="5" t="inlineStr"/>
+      <c r="W33" s="5" t="inlineStr"/>
+      <c r="X33" s="5" t="inlineStr"/>
+      <c r="Y33" s="5" t="inlineStr"/>
+      <c r="Z33" s="5" t="inlineStr"/>
+      <c r="AA33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>304203</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Montevista Stand alone SHS</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>MONTEVISTA</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H34" s="4" t="inlineStr"/>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="inlineStr"/>
+      <c r="I34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>2STY4CL</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>13964796.33</v>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="L34" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr"/>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr"/>
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
+      <c r="O34" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="P34" s="4" t="inlineStr"/>
-      <c r="Q34" s="4" t="inlineStr"/>
-      <c r="R34" s="4" t="inlineStr"/>
-      <c r="S34" s="4" t="inlineStr"/>
-      <c r="T34" s="4" t="inlineStr"/>
-      <c r="U34" s="4" t="inlineStr"/>
-      <c r="V34" s="4" t="inlineStr"/>
-      <c r="W34" s="4" t="inlineStr"/>
-      <c r="X34" s="4" t="inlineStr"/>
-      <c r="Y34" s="4" t="inlineStr"/>
-      <c r="Z34" s="4" t="inlineStr"/>
-      <c r="AA34" s="4" t="n"/>
+      <c r="P34" s="5" t="inlineStr"/>
+      <c r="Q34" s="5" t="inlineStr"/>
+      <c r="R34" s="5" t="inlineStr"/>
+      <c r="S34" s="5" t="inlineStr"/>
+      <c r="T34" s="5" t="inlineStr"/>
+      <c r="U34" s="5" t="inlineStr"/>
+      <c r="V34" s="5" t="inlineStr"/>
+      <c r="W34" s="5" t="inlineStr"/>
+      <c r="X34" s="5" t="inlineStr"/>
+      <c r="Y34" s="5" t="inlineStr"/>
+      <c r="Z34" s="5" t="inlineStr"/>
+      <c r="AA34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>128389</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Maragusan CES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="inlineStr"/>
+      <c r="I35" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>16326906.57</v>
       </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="L35" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr"/>
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
+      <c r="O35" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P35" s="4" t="inlineStr"/>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr"/>
-      <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
-      <c r="X35" s="4" t="inlineStr"/>
-      <c r="Y35" s="4" t="inlineStr"/>
-      <c r="Z35" s="4" t="inlineStr"/>
-      <c r="AA35" s="4" t="n"/>
+      <c r="P35" s="5" t="inlineStr"/>
+      <c r="Q35" s="5" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="5" t="inlineStr"/>
+      <c r="U35" s="5" t="inlineStr"/>
+      <c r="V35" s="5" t="inlineStr"/>
+      <c r="W35" s="5" t="inlineStr"/>
+      <c r="X35" s="5" t="inlineStr"/>
+      <c r="Y35" s="5" t="inlineStr"/>
+      <c r="Z35" s="5" t="inlineStr"/>
+      <c r="AA35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>128439</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Pangi ES</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>MACO NORTH</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="inlineStr"/>
+      <c r="I36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>9547895.27</v>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="L36" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr"/>
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
+      <c r="O36" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P36" s="4" t="inlineStr"/>
-      <c r="Q36" s="4" t="inlineStr"/>
-      <c r="R36" s="4" t="inlineStr"/>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
-      <c r="X36" s="4" t="inlineStr"/>
-      <c r="Y36" s="4" t="inlineStr"/>
-      <c r="Z36" s="4" t="inlineStr"/>
-      <c r="AA36" s="4" t="n"/>
+      <c r="P36" s="5" t="inlineStr"/>
+      <c r="Q36" s="5" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr"/>
+      <c r="S36" s="5" t="inlineStr"/>
+      <c r="T36" s="5" t="inlineStr"/>
+      <c r="U36" s="5" t="inlineStr"/>
+      <c r="V36" s="5" t="inlineStr"/>
+      <c r="W36" s="5" t="inlineStr"/>
+      <c r="X36" s="5" t="inlineStr"/>
+      <c r="Y36" s="5" t="inlineStr"/>
+      <c r="Z36" s="5" t="inlineStr"/>
+      <c r="AA36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>128358</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Nabunturan Comprehensive High School</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN WEST</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="inlineStr"/>
+      <c r="I37" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>2STY10CL</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>36668264.18</v>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="L37" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr"/>
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O37" s="4" t="n">
+      <c r="O37" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
-      <c r="X37" s="4" t="inlineStr"/>
-      <c r="Y37" s="4" t="inlineStr"/>
-      <c r="Z37" s="4" t="inlineStr"/>
-      <c r="AA37" s="4" t="n"/>
+      <c r="P37" s="5" t="inlineStr"/>
+      <c r="Q37" s="5" t="inlineStr"/>
+      <c r="R37" s="5" t="inlineStr"/>
+      <c r="S37" s="5" t="inlineStr"/>
+      <c r="T37" s="5" t="inlineStr"/>
+      <c r="U37" s="5" t="inlineStr"/>
+      <c r="V37" s="5" t="inlineStr"/>
+      <c r="W37" s="5" t="inlineStr"/>
+      <c r="X37" s="5" t="inlineStr"/>
+      <c r="Y37" s="5" t="inlineStr"/>
+      <c r="Z37" s="5" t="inlineStr"/>
+      <c r="AA37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>301526</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>PANGI NHS</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>MACO NORTH</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="inlineStr"/>
+      <c r="I38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>4807238.72</v>
       </c>
-      <c r="L38" s="4" t="inlineStr">
+      <c r="L38" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr"/>
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n">
+      <c r="O38" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="4" t="inlineStr"/>
-      <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
-      <c r="X38" s="4" t="inlineStr"/>
-      <c r="Y38" s="4" t="inlineStr"/>
-      <c r="Z38" s="4" t="inlineStr"/>
-      <c r="AA38" s="4" t="n"/>
+      <c r="P38" s="5" t="inlineStr"/>
+      <c r="Q38" s="5" t="inlineStr"/>
+      <c r="R38" s="5" t="inlineStr"/>
+      <c r="S38" s="5" t="inlineStr"/>
+      <c r="T38" s="5" t="inlineStr"/>
+      <c r="U38" s="5" t="inlineStr"/>
+      <c r="V38" s="5" t="inlineStr"/>
+      <c r="W38" s="5" t="inlineStr"/>
+      <c r="X38" s="5" t="inlineStr"/>
+      <c r="Y38" s="5" t="inlineStr"/>
+      <c r="Z38" s="5" t="inlineStr"/>
+      <c r="AA38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>502373</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Antequera Integrated School</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="4" t="n">
+      <c r="I39" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>3628369.14</v>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L39" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr"/>
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="4" t="n">
+      <c r="O39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="P39" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr">
+      <c r="Q39" s="5" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr">
+      <c r="S39" s="5" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr"/>
+      <c r="U39" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V39" s="4" t="inlineStr">
+      <c r="V39" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W39" s="5" t="n">
+      <c r="W39" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X39" s="5" t="n">
+      <c r="X39" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y39" s="4" t="inlineStr">
+      <c r="Y39" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z39" s="4" t="inlineStr"/>
-      <c r="AA39" s="4" t="n"/>
+      <c r="Z39" s="5" t="inlineStr"/>
+      <c r="AA39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>304194</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Mainit NHS</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I40" s="4" t="n">
+      <c r="I40" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>5641678.204944912</v>
       </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="L40" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M40" s="4" t="n">
+      <c r="M40" s="5" t="n">
         <v>3893058.15</v>
       </c>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="N40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="4" t="n">
+      <c r="O40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="5" t="n">
+      <c r="P40" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="Q40" s="4" t="inlineStr"/>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="Q40" s="5" t="inlineStr"/>
+      <c r="R40" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT7</t>
         </is>
       </c>
-      <c r="S40" s="4" t="inlineStr"/>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr">
+      <c r="S40" s="5" t="inlineStr"/>
+      <c r="T40" s="5" t="inlineStr"/>
+      <c r="U40" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="V40" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W40" s="5" t="n">
+      <c r="W40" s="7" t="n">
         <v>45373</v>
       </c>
-      <c r="X40" s="5" t="n">
+      <c r="X40" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="Y40" s="4" t="inlineStr">
+      <c r="Y40" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z40" s="4" t="inlineStr">
+      <c r="Z40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA40" s="4" t="n"/>
+      <c r="AA40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>304195</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>Manat NHS</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I41" s="4" t="n">
+      <c r="I41" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>4107035.145500883</v>
       </c>
-      <c r="L41" s="4" t="inlineStr">
+      <c r="L41" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M41" s="4" t="n">
+      <c r="M41" s="5" t="n">
         <v>2744050.32</v>
       </c>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="4" t="n">
+      <c r="O41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="5" t="n">
+      <c r="P41" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT7</t>
         </is>
       </c>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr">
+      <c r="S41" s="5" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V41" s="4" t="inlineStr">
+      <c r="V41" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W41" s="5" t="n">
+      <c r="W41" s="7" t="n">
         <v>45373</v>
       </c>
-      <c r="X41" s="5" t="n">
+      <c r="X41" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="Y41" s="4" t="inlineStr">
+      <c r="Y41" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z41" s="4" t="inlineStr"/>
-      <c r="AA41" s="4" t="n"/>
+      <c r="Z41" s="5" t="inlineStr"/>
+      <c r="AA41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>129064</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>Mangahos PS</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>SARANGANI</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I42" s="4" t="n">
+      <c r="I42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="5" t="n">
         <v>5650766.5</v>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="L42" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr"/>
+      <c r="N42" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O42" s="4" t="n">
+      <c r="O42" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P42" s="5" t="n">
+      <c r="P42" s="7" t="n">
         <v>45826</v>
       </c>
-      <c r="Q42" s="4" t="inlineStr"/>
-      <c r="R42" s="4" t="inlineStr">
+      <c r="Q42" s="5" t="inlineStr"/>
+      <c r="R42" s="5" t="inlineStr">
         <is>
           <t>ITB W-13-2025</t>
         </is>
       </c>
-      <c r="S42" s="4" t="inlineStr">
+      <c r="S42" s="5" t="inlineStr">
         <is>
           <t>2024-021</t>
         </is>
       </c>
-      <c r="T42" s="5" t="n">
+      <c r="T42" s="7" t="n">
         <v>45972</v>
       </c>
-      <c r="U42" s="5" t="n">
+      <c r="U42" s="7" t="n">
         <v>45979</v>
       </c>
-      <c r="V42" s="5" t="n">
+      <c r="V42" s="7" t="n">
         <v>45986</v>
       </c>
-      <c r="W42" s="5" t="n">
+      <c r="W42" s="7" t="n">
         <v>45994</v>
       </c>
-      <c r="X42" s="4" t="inlineStr">
+      <c r="X42" s="5" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y42" s="4" t="inlineStr">
+      <c r="Y42" s="5" t="inlineStr">
         <is>
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z42" s="4" t="inlineStr"/>
-      <c r="AA42" s="4" t="n"/>
+      <c r="Z42" s="5" t="inlineStr"/>
+      <c r="AA42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>304283</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Kalbay National High School</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>JOSE ABAD SANTOS (TRINIDAD)</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I43" s="4" t="n">
+      <c r="I43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="5" t="n">
         <v>7661049.91</v>
       </c>
-      <c r="L43" s="4" t="inlineStr">
+      <c r="L43" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr"/>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr"/>
+      <c r="N43" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O43" s="4" t="n">
+      <c r="O43" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P43" s="5" t="n">
+      <c r="P43" s="7" t="n">
         <v>45826</v>
       </c>
-      <c r="Q43" s="4" t="inlineStr"/>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="Q43" s="5" t="inlineStr"/>
+      <c r="R43" s="5" t="inlineStr">
         <is>
           <t>ITB W-12-2025</t>
         </is>
       </c>
-      <c r="S43" s="4" t="inlineStr">
+      <c r="S43" s="5" t="inlineStr">
         <is>
           <t>2024-020</t>
         </is>
       </c>
-      <c r="T43" s="5" t="n">
+      <c r="T43" s="7" t="n">
         <v>45972</v>
       </c>
-      <c r="U43" s="5" t="n">
+      <c r="U43" s="7" t="n">
         <v>45979</v>
       </c>
-      <c r="V43" s="5" t="n">
+      <c r="V43" s="7" t="n">
         <v>45986</v>
       </c>
-      <c r="W43" s="5" t="n">
+      <c r="W43" s="7" t="n">
         <v>45994</v>
       </c>
-      <c r="X43" s="4" t="inlineStr">
+      <c r="X43" s="5" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y43" s="4" t="inlineStr">
+      <c r="Y43" s="5" t="inlineStr">
         <is>
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z43" s="4" t="inlineStr"/>
-      <c r="AA43" s="4" t="n"/>
+      <c r="Z43" s="5" t="inlineStr"/>
+      <c r="AA43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>128690</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>Kaputian Central Elementary School</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="4" t="n">
+      <c r="I44" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="5" t="n">
         <v>3769336.35</v>
       </c>
-      <c r="L44" s="4" t="inlineStr">
+      <c r="L44" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M44" s="4" t="n">
+      <c r="M44" s="5" t="n">
         <v>2015230.12</v>
       </c>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="N44" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O44" s="4" t="n">
+      <c r="O44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="4" t="inlineStr">
+      <c r="P44" s="5" t="inlineStr">
         <is>
           <t>04/20/2025</t>
         </is>
       </c>
-      <c r="Q44" s="4" t="inlineStr"/>
-      <c r="R44" s="4" t="inlineStr">
+      <c r="Q44" s="5" t="inlineStr"/>
+      <c r="R44" s="5" t="inlineStr">
         <is>
           <t>infra-001-0802024</t>
         </is>
       </c>
-      <c r="S44" s="4" t="inlineStr"/>
-      <c r="T44" s="4" t="inlineStr">
+      <c r="S44" s="5" t="inlineStr"/>
+      <c r="T44" s="5" t="inlineStr">
         <is>
           <t>10/15/2024</t>
         </is>
       </c>
-      <c r="U44" s="4" t="inlineStr">
+      <c r="U44" s="5" t="inlineStr">
         <is>
           <t>10/21/2024</t>
         </is>
       </c>
-      <c r="V44" s="5" t="n">
+      <c r="V44" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="W44" s="4" t="inlineStr"/>
-      <c r="X44" s="4" t="inlineStr">
+      <c r="W44" s="5" t="inlineStr"/>
+      <c r="X44" s="5" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="Y44" s="4" t="n">
+      <c r="Y44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z44" s="4" t="inlineStr">
+      <c r="Z44" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AA44" s="4" t="n"/>
+      <c r="AA44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>128733</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>Limao Elementary School</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="n">
+      <c r="H45" s="5" t="inlineStr"/>
+      <c r="I45" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="5" t="n">
         <v>2223978.46</v>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="L45" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M45" s="4" t="n">
+      <c r="M45" s="5" t="n">
         <v>1571884</v>
       </c>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="N45" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O45" s="4" t="n">
+      <c r="O45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="5" t="n">
+      <c r="P45" s="7" t="n">
         <v>45934</v>
       </c>
-      <c r="Q45" s="4" t="inlineStr"/>
-      <c r="R45" s="4" t="inlineStr">
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr">
         <is>
           <t>infra-001-0802024</t>
         </is>
       </c>
-      <c r="S45" s="4" t="inlineStr"/>
-      <c r="T45" s="4" t="inlineStr">
+      <c r="S45" s="5" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr">
         <is>
           <t>10/15/2024</t>
         </is>
       </c>
-      <c r="U45" s="4" t="inlineStr">
+      <c r="U45" s="5" t="inlineStr">
         <is>
           <t>10/21/2024</t>
         </is>
       </c>
-      <c r="V45" s="5" t="n">
+      <c r="V45" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="W45" s="4" t="inlineStr"/>
-      <c r="X45" s="4" t="inlineStr">
+      <c r="W45" s="5" t="inlineStr"/>
+      <c r="X45" s="5" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="Y45" s="4" t="n">
+      <c r="Y45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z45" s="4" t="inlineStr">
+      <c r="Z45" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AA45" s="4" t="n"/>
+      <c r="AA45" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,2913 +453,3014 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="48" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="48" customWidth="1" min="6" max="6"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="41" customWidth="1" min="25" max="25"/>
-    <col width="63" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="41" customWidth="1" min="26" max="26"/>
+    <col width="63" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>3070</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Davao City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>129652</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Alejandra L. Navarro Central Elementary School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>DAVAO CITY</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="J2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>2722196.51</v>
       </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="N2" s="5" t="n">
         <v>2252300.56</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>May 14, 2024</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr"/>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>1s2024</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr"/>
       <c r="U2" s="5" t="inlineStr"/>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>November 16, 2023</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>January 16, 204</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>February 20, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Panabo General Contractor &amp; Development</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr"/>
-      <c r="AA2" s="6" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>3071</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>315819</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Bango NHS</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr"/>
       <c r="I3" s="5" t="inlineStr"/>
       <c r="J3" s="5" t="inlineStr"/>
       <c r="K3" s="5" t="inlineStr"/>
       <c r="L3" s="5" t="inlineStr"/>
       <c r="M3" s="5" t="inlineStr"/>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr"/>
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr"/>
       <c r="P3" s="5" t="inlineStr"/>
       <c r="Q3" s="5" t="inlineStr"/>
       <c r="R3" s="5" t="inlineStr"/>
       <c r="S3" s="5" t="inlineStr"/>
       <c r="T3" s="5" t="inlineStr"/>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr"/>
       <c r="X3" s="5" t="inlineStr"/>
       <c r="Y3" s="5" t="inlineStr"/>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>3072</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>128267</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Mangayon ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="J4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>2809299.499915523</v>
       </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="N4" s="5" t="n">
         <v>2121007.86</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="P4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="Q4" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q4" s="5" t="inlineStr"/>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT1</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr"/>
       <c r="T4" s="5" t="inlineStr"/>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr"/>
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="X4" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X4" s="7" t="n">
+      <c r="Y4" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr"/>
-      <c r="AA4" s="6" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>3073</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>128270</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>New Alegria ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>COMPOSTELA</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="J5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>4108204.870844576</v>
       </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="N5" s="5" t="n">
         <v>2755999.53</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="P5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="Q5" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT1</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr"/>
       <c r="T5" s="5" t="inlineStr"/>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr"/>
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="X5" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="Y5" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr"/>
-      <c r="AA5" s="6" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>3074</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>128378</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Bagong Silang ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="I6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="J6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>2073961.662562171</v>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="N6" s="5" t="n">
         <v>1435695.91</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="P6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="Q6" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="Q6" s="5" t="inlineStr"/>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="5" t="inlineStr"/>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="X6" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="Y6" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="6" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>3075</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>128380</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Cambagang ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>5915104.549336852</v>
       </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="N7" s="5" t="n">
         <v>4071586.69</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="Q7" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="Q7" s="5" t="inlineStr"/>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="5" t="inlineStr"/>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="X7" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X7" s="7" t="n">
+      <c r="Y7" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr"/>
-      <c r="AA7" s="6" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>3076</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>128387</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Mabugnao ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr"/>
       <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O8" s="5" t="inlineStr"/>
       <c r="P8" s="5" t="inlineStr"/>
       <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="5" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr"/>
       <c r="X8" s="5" t="inlineStr"/>
       <c r="Y8" s="5" t="inlineStr"/>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>128390</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Mauswagon ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="I9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>13960812.88</v>
       </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="P9" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P9" s="5" t="inlineStr"/>
       <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr"/>
       <c r="X9" s="5" t="inlineStr"/>
       <c r="Y9" s="5" t="inlineStr"/>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>Failed bidding; 
 Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>3078</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>128393</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>New Manay ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="I10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="J10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>2079599.342226845</v>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="N10" s="5" t="n">
         <v>1462881.36</v>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="P10" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>45497</v>
       </c>
       <c r="Q10" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="R10" s="7" t="n">
+        <v>45497</v>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT3</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr"/>
       <c r="T10" s="5" t="inlineStr"/>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="X10" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X10" s="7" t="n">
+      <c r="Y10" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AA10" s="6" t="n"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>3079</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>204009</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Sapawan ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr"/>
       <c r="P11" s="5" t="inlineStr"/>
       <c r="Q11" s="5" t="inlineStr"/>
       <c r="R11" s="5" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr"/>
       <c r="T11" s="5" t="inlineStr"/>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr"/>
       <c r="X11" s="5" t="inlineStr"/>
       <c r="Y11" s="5" t="inlineStr"/>
-      <c r="Z11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA11" s="6" t="n"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>3080</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>128403</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Tuburan ES</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O12" s="5" t="inlineStr"/>
       <c r="P12" s="5" t="inlineStr"/>
       <c r="Q12" s="5" t="inlineStr"/>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
       <c r="T12" s="5" t="inlineStr"/>
-      <c r="U12" s="5" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V12" s="5" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr"/>
       <c r="X12" s="5" t="inlineStr"/>
       <c r="Y12" s="5" t="inlineStr"/>
-      <c r="Z12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA12" s="6" t="n"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>3081</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>128431</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Casoon ES</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H13" s="5" t="inlineStr"/>
       <c r="I13" s="5" t="inlineStr"/>
       <c r="J13" s="5" t="inlineStr"/>
       <c r="K13" s="5" t="inlineStr"/>
       <c r="L13" s="5" t="inlineStr"/>
       <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O13" s="5" t="inlineStr"/>
       <c r="P13" s="5" t="inlineStr"/>
       <c r="Q13" s="5" t="inlineStr"/>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="5" t="inlineStr"/>
-      <c r="U13" s="5" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V13" s="5" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W13" s="5" t="inlineStr"/>
       <c r="X13" s="5" t="inlineStr"/>
       <c r="Y13" s="5" t="inlineStr"/>
-      <c r="Z13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA13" s="6" t="n"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>3082</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>304199</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Monkayo NHS</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="I14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="J14" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>3921702.249427918</v>
       </c>
-      <c r="L14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="N14" s="5" t="n">
         <v>2761931.82</v>
       </c>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="P14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="Q14" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr"/>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr"/>
       <c r="T14" s="5" t="inlineStr"/>
-      <c r="U14" s="5" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V14" s="5" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="X14" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X14" s="7" t="n">
+      <c r="Y14" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="6" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>3083</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>500455</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Olaycon Integrated School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="I15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="J15" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>2193563.316904601</v>
       </c>
-      <c r="L15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="N15" s="5" t="n">
         <v>1590036.59</v>
       </c>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="P15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="Q15" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr"/>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S15" s="5" t="inlineStr"/>
       <c r="T15" s="5" t="inlineStr"/>
-      <c r="U15" s="5" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr"/>
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V15" s="5" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="X15" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="Y15" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="6" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>3084</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>315808</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>ULIP NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="I16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="J16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>9707668.779999999</v>
       </c>
-      <c r="L16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="P16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="Q16" s="7" t="n">
         <v>45707</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr"/>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>SDDO-015-2024</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="7" t="n">
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="7" t="n">
         <v>45451</v>
       </c>
-      <c r="U16" s="5" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>08/18/2024</t>
         </is>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="W16" s="5" t="inlineStr"/>
       <c r="X16" s="5" t="inlineStr"/>
       <c r="Y16" s="5" t="inlineStr"/>
-      <c r="Z16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="5" t="inlineStr">
         <is>
           <t>for award</t>
         </is>
       </c>
-      <c r="AA16" s="6" t="n"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>3085</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>315808</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>ULIP NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>MONKAYO</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="J17" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>3289402.949819081</v>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="N17" s="5" t="n">
         <v>2333984.98</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="P17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="Q17" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr"/>
       <c r="T17" s="5" t="inlineStr"/>
-      <c r="U17" s="5" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V17" s="5" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W17" s="5" t="inlineStr"/>
       <c r="X17" s="5" t="inlineStr"/>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr"/>
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="6" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>3086</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>304202</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Montevista NHS</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>MONTEVISTA</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="J18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>1553352.293399594</v>
       </c>
-      <c r="L18" s="5" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="N18" s="5" t="n">
         <v>1149366.41</v>
       </c>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="P18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="Q18" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr"/>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr"/>
       <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="5" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X18" s="7" t="n">
+      <c r="Y18" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="6" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>3087</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>128477</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Sambayon ES</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>MONTEVISTA</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="I19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>2916790.980002243</v>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="N19" s="5" t="n">
         <v>1980451.57</v>
       </c>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="P19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="Q19" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr"/>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT2</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr"/>
       <c r="T19" s="5" t="inlineStr"/>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V19" s="5" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="X19" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X19" s="7" t="n">
+      <c r="Y19" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="6" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>3088</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>304206</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>New Bataan NHS</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>NEW BATAAN</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="J20" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>16725290.85997445</v>
       </c>
-      <c r="L20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="N20" s="5" t="n">
         <v>10972099.93</v>
       </c>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="P20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="Q20" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT8</t>
         </is>
       </c>
-      <c r="S20" s="5" t="inlineStr"/>
       <c r="T20" s="5" t="inlineStr"/>
-      <c r="U20" s="5" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr"/>
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V20" s="5" t="inlineStr">
+      <c r="W20" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X20" s="7" t="n">
+      <c r="Y20" s="7" t="n">
         <v>45378</v>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="6" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>3089</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>304173</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Anibongan NHS</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O21" s="5" t="inlineStr"/>
       <c r="P21" s="5" t="inlineStr"/>
       <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr"/>
       <c r="T21" s="5" t="inlineStr"/>
-      <c r="U21" s="5" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V21" s="5" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W21" s="5" t="inlineStr"/>
       <c r="X21" s="5" t="inlineStr"/>
       <c r="Y21" s="5" t="inlineStr"/>
-      <c r="Z21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA21" s="6" t="n"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>304193</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Atty. Orlando S. Rimando NHS</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="J22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>6257681.118703899</v>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="N22" s="5" t="n">
         <v>4373310.2</v>
       </c>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="P22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="Q22" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr"/>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT6</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr"/>
       <c r="T22" s="5" t="inlineStr"/>
-      <c r="U22" s="5" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V22" s="5" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="X22" s="7" t="n">
         <v>45362</v>
       </c>
-      <c r="X22" s="7" t="n">
+      <c r="Y22" s="7" t="n">
         <v>45366</v>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>DQMB CONST. &amp; SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z22" s="5" t="inlineStr"/>
-      <c r="AA22" s="6" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>3091</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>128345</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Bucana ES</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="inlineStr"/>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="inlineStr"/>
       <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O23" s="5" t="inlineStr"/>
       <c r="P23" s="5" t="inlineStr"/>
       <c r="Q23" s="5" t="inlineStr"/>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
       <c r="T23" s="5" t="inlineStr"/>
-      <c r="U23" s="5" t="inlineStr">
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V23" s="5" t="inlineStr">
+      <c r="W23" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W23" s="5" t="inlineStr"/>
       <c r="X23" s="5" t="inlineStr"/>
       <c r="Y23" s="5" t="inlineStr"/>
-      <c r="Z23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA23" s="6" t="n"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>3092</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>128349</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Gubatan ES</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="I24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="J24" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>3-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>31978668.37</v>
       </c>
-      <c r="L24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="N24" s="5" t="n">
         <v>31969553.96</v>
       </c>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="P24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="Q24" s="7" t="n">
         <v>45612</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr"/>
       <c r="R24" s="5" t="inlineStr"/>
       <c r="S24" s="5" t="inlineStr"/>
       <c r="T24" s="5" t="inlineStr"/>
-      <c r="U24" s="5" t="inlineStr">
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V24" s="5" t="inlineStr">
+      <c r="W24" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W24" s="7" t="n">
+      <c r="X24" s="7" t="n">
         <v>45373</v>
       </c>
-      <c r="X24" s="7" t="n">
+      <c r="Y24" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr"/>
-      <c r="AA24" s="6" t="n"/>
+      <c r="AA24" s="5" t="inlineStr"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>3093</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>315811</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>New Leyte NHS</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="I25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>1614972.43548443</v>
       </c>
-      <c r="L25" s="5" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="N25" s="5" t="n">
         <v>1137605.79</v>
       </c>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="P25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="Q25" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr"/>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT6</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr"/>
       <c r="T25" s="5" t="inlineStr"/>
-      <c r="U25" s="5" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="X25" s="7" t="n">
         <v>45362</v>
       </c>
-      <c r="X25" s="7" t="n">
+      <c r="Y25" s="7" t="n">
         <v>45366</v>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>DQMB CONST. &amp; SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z25" s="5" t="inlineStr"/>
-      <c r="AA25" s="6" t="n"/>
+      <c r="AA25" s="5" t="inlineStr"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>3094</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>301526</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Pangi NHS</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="inlineStr"/>
       <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr"/>
       <c r="P26" s="5" t="inlineStr"/>
       <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr"/>
       <c r="T26" s="5" t="inlineStr"/>
-      <c r="U26" s="5" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr"/>
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W26" s="5" t="inlineStr"/>
       <c r="X26" s="5" t="inlineStr"/>
       <c r="Y26" s="5" t="inlineStr"/>
-      <c r="Z26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr"/>
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA26" s="6" t="n"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>3095</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>128362</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Taglawig ES</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>MACO</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="I27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="J27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>6848897.56</v>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="P27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="Q27" s="7" t="n">
         <v>45707</v>
       </c>
-      <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr"/>
-      <c r="T27" s="7" t="n">
+      <c r="T27" s="5" t="inlineStr"/>
+      <c r="U27" s="7" t="n">
         <v>45451</v>
       </c>
-      <c r="U27" s="5" t="inlineStr">
+      <c r="V27" s="5" t="inlineStr">
         <is>
           <t>08/18/2024</t>
         </is>
       </c>
-      <c r="V27" s="7" t="n">
+      <c r="W27" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="W27" s="5" t="inlineStr"/>
       <c r="X27" s="5" t="inlineStr"/>
       <c r="Y27" s="5" t="inlineStr"/>
-      <c r="Z27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr"/>
+      <c r="AA27" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA27" s="6" t="n"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>3096</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H28" s="5" t="inlineStr"/>
       <c r="I28" s="5" t="inlineStr"/>
       <c r="J28" s="5" t="inlineStr"/>
       <c r="K28" s="5" t="inlineStr"/>
       <c r="L28" s="5" t="inlineStr"/>
       <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O28" s="5" t="inlineStr"/>
       <c r="P28" s="5" t="inlineStr"/>
       <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr"/>
       <c r="T28" s="5" t="inlineStr"/>
-      <c r="U28" s="5" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr"/>
       <c r="X28" s="5" t="inlineStr"/>
       <c r="Y28" s="5" t="inlineStr"/>
-      <c r="Z28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr"/>
+      <c r="AA28" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA28" s="6" t="n"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>3097</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="inlineStr"/>
       <c r="J29" s="5" t="inlineStr"/>
       <c r="K29" s="5" t="inlineStr"/>
       <c r="L29" s="5" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr"/>
       <c r="P29" s="5" t="inlineStr"/>
       <c r="Q29" s="5" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr"/>
       <c r="S29" s="5" t="inlineStr"/>
       <c r="T29" s="5" t="inlineStr"/>
-      <c r="U29" s="5" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V29" s="5" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W29" s="5" t="inlineStr"/>
       <c r="X29" s="5" t="inlineStr"/>
       <c r="Y29" s="5" t="inlineStr"/>
-      <c r="Z29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr"/>
+      <c r="AA29" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA29" s="6" t="n"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>3098</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="inlineStr"/>
       <c r="J30" s="5" t="inlineStr"/>
       <c r="K30" s="5" t="inlineStr"/>
       <c r="L30" s="5" t="inlineStr"/>
       <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O30" s="5" t="inlineStr"/>
       <c r="P30" s="5" t="inlineStr"/>
       <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr"/>
       <c r="T30" s="5" t="inlineStr"/>
-      <c r="U30" s="5" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V30" s="5" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W30" s="5" t="inlineStr"/>
       <c r="X30" s="5" t="inlineStr"/>
       <c r="Y30" s="5" t="inlineStr"/>
-      <c r="Z30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr"/>
+      <c r="AA30" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA30" s="6" t="n"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>3099</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="5" t="inlineStr"/>
       <c r="I31" s="5" t="inlineStr"/>
       <c r="J31" s="5" t="inlineStr"/>
       <c r="K31" s="5" t="inlineStr"/>
       <c r="L31" s="5" t="inlineStr"/>
       <c r="M31" s="5" t="inlineStr"/>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O31" s="5" t="inlineStr"/>
       <c r="P31" s="5" t="inlineStr"/>
       <c r="Q31" s="5" t="inlineStr"/>
       <c r="R31" s="5" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr"/>
       <c r="T31" s="5" t="inlineStr"/>
-      <c r="U31" s="5" t="inlineStr">
+      <c r="U31" s="5" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>January 31, 2024</t>
         </is>
       </c>
-      <c r="V31" s="5" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="W31" s="5" t="inlineStr"/>
       <c r="X31" s="5" t="inlineStr"/>
       <c r="Y31" s="5" t="inlineStr"/>
-      <c r="Z31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr"/>
+      <c r="AA31" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA31" s="6" t="n"/>
+      <c r="AB31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>128484</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Bukal ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" s="5" t="inlineStr"/>
       <c r="I32" s="5" t="inlineStr"/>
       <c r="J32" s="5" t="inlineStr"/>
       <c r="K32" s="5" t="inlineStr"/>
       <c r="L32" s="5" t="inlineStr"/>
       <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>REALIGNED</t>
         </is>
       </c>
-      <c r="O32" s="5" t="inlineStr"/>
       <c r="P32" s="5" t="inlineStr"/>
       <c r="Q32" s="5" t="inlineStr"/>
       <c r="R32" s="5" t="inlineStr"/>
       <c r="S32" s="5" t="inlineStr"/>
       <c r="T32" s="5" t="inlineStr"/>
-      <c r="U32" s="5" t="inlineStr">
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V32" s="5" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W32" s="5" t="inlineStr"/>
       <c r="X32" s="5" t="inlineStr"/>
       <c r="Y32" s="5" t="inlineStr"/>
-      <c r="Z32" s="5" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr"/>
+      <c r="AA32" s="5" t="inlineStr">
         <is>
           <t>REALIGNED; Waiting for BAC Decision due to MGB findings</t>
         </is>
       </c>
-      <c r="AA32" s="6" t="n"/>
+      <c r="AB32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>3101</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>304203</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Monkayo CES</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>MONKAYO WEST</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H33" s="5" t="inlineStr"/>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="J33" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>2STY10CL</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>37496099.9</v>
       </c>
-      <c r="L33" s="5" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="P33" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="P33" s="5" t="inlineStr"/>
       <c r="Q33" s="5" t="inlineStr"/>
       <c r="R33" s="5" t="inlineStr"/>
       <c r="S33" s="5" t="inlineStr"/>
@@ -3370,69 +3471,72 @@
       <c r="X33" s="5" t="inlineStr"/>
       <c r="Y33" s="5" t="inlineStr"/>
       <c r="Z33" s="5" t="inlineStr"/>
-      <c r="AA33" s="6" t="n"/>
+      <c r="AA33" s="5" t="inlineStr"/>
+      <c r="AB33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>3102</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>304203</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Montevista Stand alone SHS</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>MONTEVISTA</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H34" s="5" t="inlineStr"/>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="J34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>2STY4CL</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>13964796.33</v>
       </c>
-      <c r="L34" s="5" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M34" s="5" t="inlineStr"/>
-      <c r="N34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr"/>
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O34" s="5" t="n">
+      <c r="P34" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="P34" s="5" t="inlineStr"/>
       <c r="Q34" s="5" t="inlineStr"/>
       <c r="R34" s="5" t="inlineStr"/>
       <c r="S34" s="5" t="inlineStr"/>
@@ -3443,69 +3547,72 @@
       <c r="X34" s="5" t="inlineStr"/>
       <c r="Y34" s="5" t="inlineStr"/>
       <c r="Z34" s="5" t="inlineStr"/>
-      <c r="AA34" s="6" t="n"/>
+      <c r="AA34" s="5" t="inlineStr"/>
+      <c r="AB34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>128389</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Maragusan CES</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>MARAGUSAN (SAN MARIANO)</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H35" s="5" t="inlineStr"/>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="J35" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>16326906.57</v>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M35" s="5" t="inlineStr"/>
-      <c r="N35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr"/>
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="P35" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P35" s="5" t="inlineStr"/>
       <c r="Q35" s="5" t="inlineStr"/>
       <c r="R35" s="5" t="inlineStr"/>
       <c r="S35" s="5" t="inlineStr"/>
@@ -3516,69 +3623,72 @@
       <c r="X35" s="5" t="inlineStr"/>
       <c r="Y35" s="5" t="inlineStr"/>
       <c r="Z35" s="5" t="inlineStr"/>
-      <c r="AA35" s="6" t="n"/>
+      <c r="AA35" s="5" t="inlineStr"/>
+      <c r="AB35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>3104</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>128439</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Pangi ES</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>MACO NORTH</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H36" s="5" t="inlineStr"/>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="J36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>9547895.27</v>
       </c>
-      <c r="L36" s="5" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M36" s="5" t="inlineStr"/>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="P36" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P36" s="5" t="inlineStr"/>
       <c r="Q36" s="5" t="inlineStr"/>
       <c r="R36" s="5" t="inlineStr"/>
       <c r="S36" s="5" t="inlineStr"/>
@@ -3589,69 +3699,72 @@
       <c r="X36" s="5" t="inlineStr"/>
       <c r="Y36" s="5" t="inlineStr"/>
       <c r="Z36" s="5" t="inlineStr"/>
-      <c r="AA36" s="6" t="n"/>
+      <c r="AA36" s="5" t="inlineStr"/>
+      <c r="AB36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>3105</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>128358</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Nabunturan Comprehensive High School</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN WEST</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H37" s="5" t="inlineStr"/>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="J37" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>2STY10CL</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>36668264.18</v>
       </c>
-      <c r="L37" s="5" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>2-NC</t>
         </is>
       </c>
-      <c r="M37" s="5" t="inlineStr"/>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr"/>
+      <c r="O37" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="P37" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="P37" s="5" t="inlineStr"/>
       <c r="Q37" s="5" t="inlineStr"/>
       <c r="R37" s="5" t="inlineStr"/>
       <c r="S37" s="5" t="inlineStr"/>
@@ -3662,69 +3775,72 @@
       <c r="X37" s="5" t="inlineStr"/>
       <c r="Y37" s="5" t="inlineStr"/>
       <c r="Z37" s="5" t="inlineStr"/>
-      <c r="AA37" s="6" t="n"/>
+      <c r="AA37" s="5" t="inlineStr"/>
+      <c r="AB37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>3106</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>301526</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>PANGI NHS</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>MACO NORTH</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H38" s="5" t="inlineStr"/>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="J38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>4807238.72</v>
       </c>
-      <c r="L38" s="5" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M38" s="5" t="inlineStr"/>
-      <c r="N38" s="5" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="P38" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="5" t="inlineStr"/>
       <c r="Q38" s="5" t="inlineStr"/>
       <c r="R38" s="5" t="inlineStr"/>
       <c r="S38" s="5" t="inlineStr"/>
@@ -3735,718 +3851,740 @@
       <c r="X38" s="5" t="inlineStr"/>
       <c r="Y38" s="5" t="inlineStr"/>
       <c r="Z38" s="5" t="inlineStr"/>
-      <c r="AA38" s="6" t="n"/>
+      <c r="AA38" s="5" t="inlineStr"/>
+      <c r="AB38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>3107</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>502373</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Antequera Integrated School</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H39" s="5" t="n">
+      <c r="I39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="5" t="n">
+      <c r="J39" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>3628369.14</v>
       </c>
-      <c r="L39" s="5" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M39" s="5" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="P39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="7" t="n">
+      <c r="Q39" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="Q39" s="5" t="inlineStr"/>
-      <c r="R39" s="5" t="inlineStr">
+      <c r="R39" s="5" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT9</t>
         </is>
       </c>
-      <c r="S39" s="5" t="inlineStr"/>
       <c r="T39" s="5" t="inlineStr"/>
-      <c r="U39" s="5" t="inlineStr">
+      <c r="U39" s="5" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V39" s="5" t="inlineStr">
+      <c r="W39" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W39" s="7" t="n">
+      <c r="X39" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="X39" s="7" t="n">
+      <c r="Y39" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Y39" s="5" t="inlineStr">
+      <c r="Z39" s="5" t="inlineStr">
         <is>
           <t>R. FABALE CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Z39" s="5" t="inlineStr"/>
-      <c r="AA39" s="6" t="n"/>
+      <c r="AA39" s="5" t="inlineStr"/>
+      <c r="AB39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>3108</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>304194</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Mainit NHS</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H40" s="5" t="n">
+      <c r="I40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I40" s="5" t="n">
+      <c r="J40" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>5641678.204944912</v>
       </c>
-      <c r="L40" s="5" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M40" s="5" t="n">
+      <c r="N40" s="5" t="n">
         <v>3893058.15</v>
       </c>
-      <c r="N40" s="5" t="inlineStr">
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="P40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="7" t="n">
+      <c r="Q40" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="Q40" s="5" t="inlineStr"/>
-      <c r="R40" s="5" t="inlineStr">
+      <c r="R40" s="5" t="inlineStr"/>
+      <c r="S40" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT7</t>
         </is>
       </c>
-      <c r="S40" s="5" t="inlineStr"/>
       <c r="T40" s="5" t="inlineStr"/>
-      <c r="U40" s="5" t="inlineStr">
+      <c r="U40" s="5" t="inlineStr"/>
+      <c r="V40" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V40" s="5" t="inlineStr">
+      <c r="W40" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W40" s="7" t="n">
+      <c r="X40" s="7" t="n">
         <v>45373</v>
       </c>
-      <c r="X40" s="7" t="n">
+      <c r="Y40" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="Y40" s="5" t="inlineStr">
+      <c r="Z40" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z40" s="5" t="inlineStr">
+      <c r="AA40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA40" s="6" t="n"/>
+      <c r="AB40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>3109</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>304195</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Manat NHS</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>NABUNTURAN (Capital)</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H41" s="5" t="n">
+      <c r="I41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I41" s="5" t="n">
+      <c r="J41" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>4107035.145500883</v>
       </c>
-      <c r="L41" s="5" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M41" s="5" t="n">
+      <c r="N41" s="5" t="n">
         <v>2744050.32</v>
       </c>
-      <c r="N41" s="5" t="inlineStr">
+      <c r="O41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="P41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="7" t="n">
+      <c r="Q41" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="Q41" s="5" t="inlineStr"/>
-      <c r="R41" s="5" t="inlineStr">
+      <c r="R41" s="5" t="inlineStr"/>
+      <c r="S41" s="5" t="inlineStr">
         <is>
           <t>SDDO-017-2023-LOT7</t>
         </is>
       </c>
-      <c r="S41" s="5" t="inlineStr"/>
       <c r="T41" s="5" t="inlineStr"/>
-      <c r="U41" s="5" t="inlineStr">
+      <c r="U41" s="5" t="inlineStr"/>
+      <c r="V41" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V41" s="5" t="inlineStr">
+      <c r="W41" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W41" s="7" t="n">
+      <c r="X41" s="7" t="n">
         <v>45373</v>
       </c>
-      <c r="X41" s="7" t="n">
+      <c r="Y41" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="Y41" s="5" t="inlineStr">
+      <c r="Z41" s="5" t="inlineStr">
         <is>
           <t>TWO DEGREES CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z41" s="5" t="inlineStr"/>
-      <c r="AA41" s="6" t="n"/>
+      <c r="AA41" s="5" t="inlineStr"/>
+      <c r="AB41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="5" t="n">
+        <v>3245</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="E42" s="5" t="n">
         <v>129064</v>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Mangahos PS</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>SARANGANI</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H42" s="5" t="n">
+      <c r="I42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I42" s="5" t="n">
+      <c r="J42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="L42" s="5" t="n">
         <v>5650766.5</v>
       </c>
-      <c r="L42" s="5" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M42" s="5" t="inlineStr"/>
-      <c r="N42" s="5" t="inlineStr">
+      <c r="N42" s="5" t="inlineStr"/>
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O42" s="5" t="n">
+      <c r="P42" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P42" s="7" t="n">
+      <c r="Q42" s="7" t="n">
         <v>45826</v>
       </c>
-      <c r="Q42" s="5" t="inlineStr"/>
-      <c r="R42" s="5" t="inlineStr">
+      <c r="R42" s="5" t="inlineStr"/>
+      <c r="S42" s="5" t="inlineStr">
         <is>
           <t>ITB W-13-2025</t>
         </is>
       </c>
-      <c r="S42" s="5" t="inlineStr">
+      <c r="T42" s="5" t="inlineStr">
         <is>
           <t>2024-021</t>
         </is>
       </c>
-      <c r="T42" s="7" t="n">
+      <c r="U42" s="7" t="n">
         <v>45972</v>
       </c>
-      <c r="U42" s="7" t="n">
+      <c r="V42" s="7" t="n">
         <v>45979</v>
       </c>
-      <c r="V42" s="7" t="n">
+      <c r="W42" s="7" t="n">
         <v>45986</v>
       </c>
-      <c r="W42" s="7" t="n">
+      <c r="X42" s="7" t="n">
         <v>45994</v>
       </c>
-      <c r="X42" s="5" t="inlineStr">
+      <c r="Y42" s="5" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y42" s="5" t="inlineStr">
+      <c r="Z42" s="5" t="inlineStr">
         <is>
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z42" s="5" t="inlineStr"/>
-      <c r="AA42" s="6" t="n"/>
+      <c r="AA42" s="5" t="inlineStr"/>
+      <c r="AB42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="5" t="n">
+        <v>3246</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="E43" s="5" t="n">
         <v>304283</v>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Kalbay National High School</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>JOSE ABAD SANTOS (TRINIDAD)</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="I43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="J43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="L43" s="5" t="n">
         <v>7661049.91</v>
       </c>
-      <c r="L43" s="5" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M43" s="5" t="inlineStr"/>
-      <c r="N43" s="5" t="inlineStr">
+      <c r="N43" s="5" t="inlineStr"/>
+      <c r="O43" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O43" s="5" t="n">
+      <c r="P43" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P43" s="7" t="n">
+      <c r="Q43" s="7" t="n">
         <v>45826</v>
       </c>
-      <c r="Q43" s="5" t="inlineStr"/>
-      <c r="R43" s="5" t="inlineStr">
+      <c r="R43" s="5" t="inlineStr"/>
+      <c r="S43" s="5" t="inlineStr">
         <is>
           <t>ITB W-12-2025</t>
         </is>
       </c>
-      <c r="S43" s="5" t="inlineStr">
+      <c r="T43" s="5" t="inlineStr">
         <is>
           <t>2024-020</t>
         </is>
       </c>
-      <c r="T43" s="7" t="n">
+      <c r="U43" s="7" t="n">
         <v>45972</v>
       </c>
-      <c r="U43" s="7" t="n">
+      <c r="V43" s="7" t="n">
         <v>45979</v>
       </c>
-      <c r="V43" s="7" t="n">
+      <c r="W43" s="7" t="n">
         <v>45986</v>
       </c>
-      <c r="W43" s="7" t="n">
+      <c r="X43" s="7" t="n">
         <v>45994</v>
       </c>
-      <c r="X43" s="5" t="inlineStr">
+      <c r="Y43" s="5" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y43" s="5" t="inlineStr">
+      <c r="Z43" s="5" t="inlineStr">
         <is>
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z43" s="5" t="inlineStr"/>
-      <c r="AA43" s="6" t="n"/>
+      <c r="AA43" s="5" t="inlineStr"/>
+      <c r="AB43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="5" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="E44" s="5" t="n">
         <v>128690</v>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Kaputian Central Elementary School</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="H44" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H44" s="5" t="n">
+      <c r="I44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="5" t="n">
+      <c r="J44" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="L44" s="5" t="n">
         <v>3769336.35</v>
       </c>
-      <c r="L44" s="5" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M44" s="5" t="n">
+      <c r="N44" s="5" t="n">
         <v>2015230.12</v>
       </c>
-      <c r="N44" s="5" t="inlineStr">
+      <c r="O44" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O44" s="5" t="n">
+      <c r="P44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="5" t="inlineStr">
+      <c r="Q44" s="5" t="inlineStr">
         <is>
           <t>04/20/2025</t>
         </is>
       </c>
-      <c r="Q44" s="5" t="inlineStr"/>
-      <c r="R44" s="5" t="inlineStr">
+      <c r="R44" s="5" t="inlineStr"/>
+      <c r="S44" s="5" t="inlineStr">
         <is>
           <t>infra-001-0802024</t>
         </is>
       </c>
-      <c r="S44" s="5" t="inlineStr"/>
-      <c r="T44" s="5" t="inlineStr">
+      <c r="T44" s="5" t="inlineStr"/>
+      <c r="U44" s="5" t="inlineStr">
         <is>
           <t>10/15/2024</t>
         </is>
       </c>
-      <c r="U44" s="5" t="inlineStr">
+      <c r="V44" s="5" t="inlineStr">
         <is>
           <t>10/21/2024</t>
         </is>
       </c>
-      <c r="V44" s="7" t="n">
+      <c r="W44" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="W44" s="5" t="inlineStr"/>
-      <c r="X44" s="5" t="inlineStr">
+      <c r="X44" s="5" t="inlineStr"/>
+      <c r="Y44" s="5" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="Y44" s="5" t="n">
+      <c r="Z44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z44" s="5" t="inlineStr">
+      <c r="AA44" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AA44" s="6" t="n"/>
+      <c r="AB44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="5" t="n">
+        <v>3248</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="E45" s="5" t="n">
         <v>128733</v>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Limao Elementary School</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H45" s="5" t="inlineStr"/>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="J45" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="L45" s="5" t="n">
         <v>2223978.46</v>
       </c>
-      <c r="L45" s="5" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M45" s="5" t="n">
+      <c r="N45" s="5" t="n">
         <v>1571884</v>
       </c>
-      <c r="N45" s="5" t="inlineStr">
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O45" s="5" t="n">
+      <c r="P45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="7" t="n">
+      <c r="Q45" s="7" t="n">
         <v>45934</v>
       </c>
-      <c r="Q45" s="5" t="inlineStr"/>
-      <c r="R45" s="5" t="inlineStr">
+      <c r="R45" s="5" t="inlineStr"/>
+      <c r="S45" s="5" t="inlineStr">
         <is>
           <t>infra-001-0802024</t>
         </is>
       </c>
-      <c r="S45" s="5" t="inlineStr"/>
-      <c r="T45" s="5" t="inlineStr">
+      <c r="T45" s="5" t="inlineStr"/>
+      <c r="U45" s="5" t="inlineStr">
         <is>
           <t>10/15/2024</t>
         </is>
       </c>
-      <c r="U45" s="5" t="inlineStr">
+      <c r="V45" s="5" t="inlineStr">
         <is>
           <t>10/21/2024</t>
         </is>
       </c>
-      <c r="V45" s="7" t="n">
+      <c r="W45" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="W45" s="5" t="inlineStr"/>
-      <c r="X45" s="5" t="inlineStr">
+      <c r="X45" s="5" t="inlineStr"/>
+      <c r="Y45" s="5" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="Y45" s="5" t="n">
+      <c r="Z45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z45" s="5" t="inlineStr">
+      <c r="AA45" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AA45" s="6" t="n"/>
+      <c r="AB45" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
